--- a/docs/STAFF-DATA/011.xlsx
+++ b/docs/STAFF-DATA/011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E0D7C-04E0-44EC-BDC4-6DD609A1B82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D7BBC-F2B2-4548-8E40-050ED901939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>https://www.researchgate.net/profile/Sowmiya-M-N</t>
+  </si>
+  <si>
+    <t>NIL</t>
   </si>
   <si>
     <t>VEC-011-04-163</t>
@@ -768,14 +771,13 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="68.88671875" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
@@ -818,33 +820,33 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -873,7 +875,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -903,7 +905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -913,7 +915,7 @@
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -925,13 +927,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -939,7 +941,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -954,10 +956,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -968,7 +970,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -980,10 +982,10 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -991,7 +993,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1000,13 +1002,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -1014,7 +1016,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1023,14 +1025,20 @@
         <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>44</v>
       </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1040,7 +1048,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1055,7 +1063,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
@@ -1074,7 +1082,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1088,158 +1096,185 @@
       <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/011.xlsx
+++ b/docs/STAFF-DATA/011.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D7BBC-F2B2-4548-8E40-050ED901939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,26 +766,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -844,7 +843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -873,7 +872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -905,7 +904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -913,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -939,7 +938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -968,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -991,7 +990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1112,7 +1111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -1279,42 +1278,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{43098354-352C-4CE1-A1F5-09CD5CF9C54C}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{01D30C93-224D-4179-9F5F-9892650E4A61}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{22A85523-465D-44EF-8CF4-DA1CA600B53F}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{DED9BF5C-D4DA-4921-8033-4B459ECB1340}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{329709D3-77DB-4CF5-920B-40599A1744AB}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{A2AF2196-BD0C-4758-A18A-5FE470D6B3C6}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{FE20BB75-110F-4709-A506-19F859EF624F}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{9D25C24D-A14A-45AF-8993-828573FA6E60}"/>
-    <hyperlink ref="I17" r:id="rId9" xr:uid="{9A954F79-247C-45B1-B96C-66FC6E1236FE}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{999254EA-00B3-4822-92D9-8748997D2E5F}"/>
-    <hyperlink ref="H7" r:id="rId11" xr:uid="{79B484F1-8332-4171-A697-48DBC61EA096}"/>
-    <hyperlink ref="I9" r:id="rId12" xr:uid="{72FC4444-668C-4811-B777-6BBA8F8231AE}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{E3CCD01B-D480-4C6E-B938-14AEBAADAAD1}"/>
-    <hyperlink ref="I10" r:id="rId14" xr:uid="{1224018A-9898-44B1-9295-E4CF7BDC661F}"/>
-    <hyperlink ref="F11" r:id="rId15" xr:uid="{3E60607B-0EE5-47B7-AFE6-F166B1C74333}"/>
-    <hyperlink ref="D10" r:id="rId16" xr:uid="{F749B66C-33DB-40AC-AA6E-CDF8B65BD06B}"/>
-    <hyperlink ref="I8" r:id="rId17" xr:uid="{CBF23A6E-BADA-4F83-90A5-851FA59891F5}"/>
-    <hyperlink ref="D18" r:id="rId18" display="https://scholar.google.com/citations?hl=en&amp;user=bIW_e5sAAAAJ&amp;scilu=&amp;scisig=ADIE8skAAAAAZ1E_2v1tRW3NaIup6176RU2mah0&amp;gmla=AL3_zij_t5k4PLlLNoxtNH-8AAhbUNvV3lkIgnW2rQuNQxynCwRvno4NARZVG7mxHqWyLyU8WPTC7tBozNTf346WtBpoG5z8kMgIfZAvlMWu&amp;sciund=12712290102968375920" xr:uid="{7FA19CD2-5A5E-46A5-9D9E-B68C517778E0}"/>
-    <hyperlink ref="E18" r:id="rId19" xr:uid="{407944D4-C73F-4467-B635-39291AFA2A4C}"/>
-    <hyperlink ref="I18" r:id="rId20" xr:uid="{DE40C827-FBAB-435C-9432-EAA6D2E86086}"/>
-    <hyperlink ref="I13" r:id="rId21" xr:uid="{659607B3-8699-4364-89A8-D457CB343797}"/>
-    <hyperlink ref="D13" r:id="rId22" xr:uid="{BB8AD986-D8EF-40C2-8F7A-BD452E57D4A1}"/>
-    <hyperlink ref="E13" r:id="rId23" xr:uid="{16538775-49D9-411F-9238-E3A12D571138}"/>
-    <hyperlink ref="I14" r:id="rId24" xr:uid="{904F5F88-B633-40FC-868B-F795E83A8F8F}"/>
-    <hyperlink ref="D14" r:id="rId25" xr:uid="{78F5BC28-66C0-4676-BE82-65DC03685C73}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{08DCFAB4-BF42-4FC3-B343-94D328B7E328}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{7B8E8C7A-10E2-42C8-BFD6-D9512A5A4ED8}"/>
-    <hyperlink ref="E15" r:id="rId28" xr:uid="{81E0ED2B-04D9-49F4-A3FB-BE8D18CF4770}"/>
-    <hyperlink ref="I15" r:id="rId29" xr:uid="{1A655B51-DEBD-4C9C-A47E-C7D88D953984}"/>
-    <hyperlink ref="D16" r:id="rId30" xr:uid="{C00726D1-7504-4801-BE81-D59BEAF919FB}"/>
-    <hyperlink ref="F17" r:id="rId31" xr:uid="{EEB79F73-1F31-44B6-86FA-EADE4D6A36FB}"/>
-    <hyperlink ref="H17" r:id="rId32" xr:uid="{8848A86A-307F-4DAF-B516-155B3B3949AD}"/>
-    <hyperlink ref="I19" r:id="rId33" xr:uid="{51622084-7983-452C-8116-76567DAAF07D}"/>
-    <hyperlink ref="D19" r:id="rId34" xr:uid="{3A4F6F4A-279D-44C7-B268-28FFE4324666}"/>
-    <hyperlink ref="F19" r:id="rId35" xr:uid="{62F3F9DF-61AE-4CA9-A7D7-DC2B8A8FCB67}"/>
-    <hyperlink ref="H19" r:id="rId36" xr:uid="{BC537B7D-ED98-4F57-8438-548071C7879D}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="F6" r:id="rId7"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="I17" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId12"/>
+    <hyperlink ref="D9" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="D10" r:id="rId16"/>
+    <hyperlink ref="I8" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18" display="https://scholar.google.com/citations?hl=en&amp;user=bIW_e5sAAAAJ&amp;scilu=&amp;scisig=ADIE8skAAAAAZ1E_2v1tRW3NaIup6176RU2mah0&amp;gmla=AL3_zij_t5k4PLlLNoxtNH-8AAhbUNvV3lkIgnW2rQuNQxynCwRvno4NARZVG7mxHqWyLyU8WPTC7tBozNTf346WtBpoG5z8kMgIfZAvlMWu&amp;sciund=12712290102968375920"/>
+    <hyperlink ref="E18" r:id="rId19"/>
+    <hyperlink ref="I18" r:id="rId20"/>
+    <hyperlink ref="I13" r:id="rId21"/>
+    <hyperlink ref="D13" r:id="rId22"/>
+    <hyperlink ref="E13" r:id="rId23"/>
+    <hyperlink ref="I14" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="I15" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="F17" r:id="rId31"/>
+    <hyperlink ref="H17" r:id="rId32"/>
+    <hyperlink ref="I19" r:id="rId33"/>
+    <hyperlink ref="D19" r:id="rId34"/>
+    <hyperlink ref="F19" r:id="rId35"/>
+    <hyperlink ref="H19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/STAFF-DATA/011.xlsx
+++ b/docs/STAFF-DATA/011.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5396195E-8FD5-4BF9-8EEB-0D735DCA29C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -44,9 +50,6 @@
   </si>
   <si>
     <t>unique_id</t>
-  </si>
-  <si>
-    <t>Dr.Jeevaa Katiravan</t>
   </si>
   <si>
     <t>Professor and Head</t>
@@ -74,9 +77,6 @@
     <t>VEC-011-01-525</t>
   </si>
   <si>
-    <t>Dr.J Sathya Priya</t>
-  </si>
-  <si>
     <t>Associate Professor</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
     <t>VEC-011-03-111</t>
   </si>
   <si>
-    <t>Dr.C.M.Nalayini</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -131,15 +128,6 @@
     <t>VEC-011-04-156</t>
   </si>
   <si>
-    <t>MOHANRAJ</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/011/nan.webp</t>
-  </si>
-  <si>
-    <t>Mrs.V.Subbulakshmi</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-136.webp</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>VEC-011-04-136</t>
   </si>
   <si>
-    <t>Mrs.A.R.Sathyabama</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-036.webp</t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>VEC-011-04-036</t>
   </si>
   <si>
-    <t>Mrs.P.Vimala Imogen</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-166.webp</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
     <t>VEC-011-04-166</t>
   </si>
   <si>
-    <t>Mr.S.Raj Kumar</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-161.webp</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>VEC-011-04-161</t>
   </si>
   <si>
-    <t>Mrs.S.Vinodhini</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-152.webp</t>
   </si>
   <si>
@@ -239,9 +215,6 @@
     <t>VEC-011-04-152</t>
   </si>
   <si>
-    <t>Mrs.S.P.Revathy</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-069.webp</t>
   </si>
   <si>
@@ -260,12 +233,6 @@
     <t>VEC-011-04-069</t>
   </si>
   <si>
-    <t>Thivya</t>
-  </si>
-  <si>
-    <t>Mrs.M.N.Sowmiya</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-163.webp</t>
   </si>
   <si>
@@ -284,9 +251,6 @@
     <t>VEC-011-04-163</t>
   </si>
   <si>
-    <t>Mrs.S.P.Abinaya</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-162.webp</t>
   </si>
   <si>
@@ -300,12 +264,6 @@
   </si>
   <si>
     <t>VEC-011-04-162</t>
-  </si>
-  <si>
-    <t>Mrs.M.Parvathy</t>
-  </si>
-  <si>
-    <t>ASSISTANT PROFESSOR</t>
   </si>
   <si>
     <t>/static/images/profile_photos/011/VEC-011-01-526.webp
@@ -324,9 +282,6 @@
     <t>VEC-011-04-526</t>
   </si>
   <si>
-    <t>Mrs.V.Sathya</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-018.webp</t>
   </si>
   <si>
@@ -345,9 +300,6 @@
     <t>VEC-011-04-018</t>
   </si>
   <si>
-    <t>Mrs.S.Priyadharshini</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-126.webp</t>
   </si>
   <si>
@@ -360,9 +312,6 @@
     <t>VEC-011-04-126</t>
   </si>
   <si>
-    <t>Mrs.G.Preethi</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-138.webp</t>
   </si>
   <si>
@@ -378,9 +327,6 @@
     <t>VEC-011-04-138</t>
   </si>
   <si>
-    <t>Mrs.M.Rangini</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-04-157.webp</t>
   </si>
   <si>
@@ -400,13 +346,75 @@
   </si>
   <si>
     <t>VEC-011-04-157</t>
+  </si>
+  <si>
+    <t>Dr. JEEVAA KATIRAVAN</t>
+  </si>
+  <si>
+    <t>Dr. SATHYA PRIYA J</t>
+  </si>
+  <si>
+    <t>Mrs. SUBBULAKSHMI V</t>
+  </si>
+  <si>
+    <t>Mrs. VIMALA IMOGEN P</t>
+  </si>
+  <si>
+    <t>Mr. RAJ KUMAR S</t>
+  </si>
+  <si>
+    <t>Mrs. VINODHINI S</t>
+  </si>
+  <si>
+    <t>Mrs. PARVATHY M</t>
+  </si>
+  <si>
+    <t>Mrs. SATHYA V</t>
+  </si>
+  <si>
+    <t>Mrs. PRIYDHARSHINI S</t>
+  </si>
+  <si>
+    <t>Mrs. RANGINI M</t>
+  </si>
+  <si>
+    <t>Mrs. PREETHI G</t>
+  </si>
+  <si>
+    <t>VEC-011-04-564</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/011/VEC-011-04-564.webp</t>
+  </si>
+  <si>
+    <t>Dr. NALAYINI C M</t>
+  </si>
+  <si>
+    <t>Mr. MOHANRAJ K R</t>
+  </si>
+  <si>
+    <t>Mrs. SATHYABAMA A R</t>
+  </si>
+  <si>
+    <t>Mrs. REVATHY S P</t>
+  </si>
+  <si>
+    <t>Mrs. SOWMIYA M N</t>
+  </si>
+  <si>
+    <t>Mrs. ABINAYA S P</t>
+  </si>
+  <si>
+    <t>NIRANJANA DEVI J</t>
+  </si>
+  <si>
+    <t>SANTHANA ARUMUGA SANKARI M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,32 +480,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -508,10 +513,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -549,71 +554,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,7 +646,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -664,11 +669,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -677,13 +682,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -693,7 +698,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -702,7 +707,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -711,7 +716,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -719,10 +724,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -787,29 +792,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,506 +848,483 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60.75">
-      <c r="A6" s="2" t="s">
+      <c r="J17" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="2" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J18" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/011.xlsx
+++ b/docs/STAFF-DATA/011.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5396195E-8FD5-4BF9-8EEB-0D735DCA29C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -55,10 +54,6 @@
     <t>Professor and Head</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/011/VEC-011-01-525.webp
-.webp</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://scholar.google.co.in/citations?user=dtYzUpAAAAAJ&amp;hl=en </t>
   </si>
   <si>
@@ -77,9 +72,6 @@
     <t>VEC-011-01-525</t>
   </si>
   <si>
-    <t>Associate Professor</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/011/VEC-011-03-111.webp</t>
   </si>
   <si>
@@ -266,10 +258,6 @@
     <t>VEC-011-04-162</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/011/VEC-011-01-526.webp
-.webp</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?user=-3PU8h0AAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -405,16 +393,21 @@
     <t>Mrs. ABINAYA S P</t>
   </si>
   <si>
-    <t>NIRANJANA DEVI J</t>
-  </si>
-  <si>
-    <t>SANTHANA ARUMUGA SANKARI M</t>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/011/VEC-011-01-525.webp
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/011/VEC-011-01-526.webp
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,6 +483,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,14 +788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,485 +844,470 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>55</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>50</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="J9" t="s">
         <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="J11" t="s">
         <v>97</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J13" t="s">
+      <c r="E14" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="I14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="J14" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="I16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="J17" t="s">
         <v>38</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="J18" t="s">
         <v>104</v>
       </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/STAFF-DATA/011.xlsx
+++ b/docs/STAFF-DATA/011.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517201C2-59A2-4AD7-8561-6560BCB8FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -402,12 +403,39 @@
   <si>
     <t xml:space="preserve">/static/images/profile_photos/011/VEC-011-01-526.webp
 </t>
+  </si>
+  <si>
+    <t>SANTHANA ARUMUGA SANKARI M</t>
+  </si>
+  <si>
+    <t>MALATHI V</t>
+  </si>
+  <si>
+    <t>HERLINZIA C P</t>
+  </si>
+  <si>
+    <t>VEC-011-04-607</t>
+  </si>
+  <si>
+    <t>VEC-011-04-608</t>
+  </si>
+  <si>
+    <t>VEC-011-04-609</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/011/VEC-011-04-607.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/011/VEC-011-04-608.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/011/VEC-011-04-609.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,14 +816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1335,48 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/STAFF-DATA/011.xlsx
+++ b/docs/STAFF-DATA/011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517201C2-59A2-4AD7-8561-6560BCB8FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D221944-DE58-4A90-9BBC-F6591B71FCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t>/static/images/profile_photos/011/VEC-011-04-609.webp</t>
+  </si>
+  <si>
+    <t>VIJAYA LAKSHMI</t>
+  </si>
+  <si>
+    <t>SURESH V</t>
+  </si>
+  <si>
+    <t>KANAGARAJ B</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>VEC-011-05-016</t>
+  </si>
+  <si>
+    <t>VEC-011-05-017</t>
+  </si>
+  <si>
+    <t>VEC-011-05-018</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/011/VEC-011-05-016.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/011/VEC-011-05-018.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/011/VEC-011-05-017.webp</t>
   </si>
 </sst>
 </file>
@@ -820,10 +850,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,6 +1407,48 @@
         <v>132</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/STAFF-DATA/011.xlsx
+++ b/docs/STAFF-DATA/011.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F74D5-E326-461D-B321-24DB23FBFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15084" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -426,9 +432,6 @@
     <t>VEC-011-04-609</t>
   </si>
   <si>
-    <t>Mrs. VIJAYA LAKSHMI</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -454,13 +457,15 @@
   </si>
   <si>
     <t>VEC-011-05-018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. VIJAYA LAKSHMI </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,44 +537,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -580,10 +579,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -621,71 +620,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,7 +712,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -736,11 +735,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -749,13 +748,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -765,7 +764,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -774,7 +773,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -783,7 +782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -791,10 +790,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -859,29 +858,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,614 +914,551 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3" t="s">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="J19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="J21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="J22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="J23" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="J24" t="s">
         <v>144</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
